--- a/src/test/resources/excelTests/manifestUploadGoodForecastAndExistingAlreadyTPAinDB.xlsx
+++ b/src/test/resources/excelTests/manifestUploadGoodForecastAndExistingAlreadyTPAinDB.xlsx
@@ -1883,7 +1883,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="52" t="n">
-        <v>43922.0</v>
+        <v>43933.0</v>
       </c>
       <c r="C3" s="63" t="n">
         <v>0.4375</v>
@@ -1895,7 +1895,7 @@
         <v>112</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43923.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1911,7 +1911,7 @@
         <v>111</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43925.0</v>
+        <v>43936.0</v>
       </c>
       <c r="O3" s="54" t="n">
         <v>0.4583333333333333</v>
@@ -1923,7 +1923,7 @@
         <v>134</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43938.0</v>
+        <v>43949.0</v>
       </c>
       <c r="S3" s="74" t="n">
         <v>0.4166666666666667</v>
@@ -1952,7 +1952,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="42" t="n">
-        <v>43921.0</v>
+        <v>43932.0</v>
       </c>
       <c r="C4" s="61" t="n">
         <v>0.4791666666666667</v>
@@ -1964,7 +1964,7 @@
         <v>113</v>
       </c>
       <c r="F4" s="44" t="n">
-        <v>43921.0</v>
+        <v>43932.0</v>
       </c>
       <c r="G4" s="45" t="n">
         <v>0.6875</v>
@@ -1976,7 +1976,7 @@
         <v>114</v>
       </c>
       <c r="J4" s="47" t="n">
-        <v>43924.0</v>
+        <v>43935.0</v>
       </c>
       <c r="K4" s="56" t="n">
         <v>0.5277777777777778</v>
@@ -1988,7 +1988,7 @@
         <v>111</v>
       </c>
       <c r="N4" s="46" t="n">
-        <v>43926.0</v>
+        <v>43937.0</v>
       </c>
       <c r="O4" s="53" t="n">
         <v>0.7083333333333334</v>
@@ -2000,7 +2000,7 @@
         <v>136</v>
       </c>
       <c r="R4" s="51" t="n">
-        <v>43930.0</v>
+        <v>43941.0</v>
       </c>
       <c r="S4" s="77" t="n">
         <v>0.5</v>
@@ -2026,7 +2026,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="42" t="n">
-        <v>43917.0</v>
+        <v>43928.0</v>
       </c>
       <c r="C5" s="61" t="n">
         <v>0.3541666666666667</v>
@@ -2038,7 +2038,7 @@
         <v>115</v>
       </c>
       <c r="F5" s="43" t="n">
-        <v>43920.0</v>
+        <v>43931.0</v>
       </c>
       <c r="G5" s="45" t="n">
         <v>0.4375</v>
@@ -2050,7 +2050,7 @@
         <v>114</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>43923.0</v>
+        <v>43934.0</v>
       </c>
       <c r="K5" s="56" t="n">
         <v>0.5798611111111112</v>
@@ -2066,7 +2066,7 @@
         <v>134</v>
       </c>
       <c r="R5" s="51" t="n">
-        <v>43924.0</v>
+        <v>43935.0</v>
       </c>
       <c r="S5" s="77" t="n">
         <v>0.7083333333333334</v>

--- a/src/test/resources/excelTests/manifestUploadGoodForecastAndExistingAlreadyTPAinDB.xlsx
+++ b/src/test/resources/excelTests/manifestUploadGoodForecastAndExistingAlreadyTPAinDB.xlsx
@@ -1883,7 +1883,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="52" t="n">
-        <v>43933.0</v>
+        <v>43936.0</v>
       </c>
       <c r="C3" s="63" t="n">
         <v>0.4375</v>
@@ -1895,7 +1895,7 @@
         <v>112</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1911,7 +1911,7 @@
         <v>111</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43936.0</v>
+        <v>43939.0</v>
       </c>
       <c r="O3" s="54" t="n">
         <v>0.4583333333333333</v>
@@ -1923,7 +1923,7 @@
         <v>134</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43949.0</v>
+        <v>43952.0</v>
       </c>
       <c r="S3" s="74" t="n">
         <v>0.4166666666666667</v>
@@ -1952,7 +1952,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="42" t="n">
-        <v>43932.0</v>
+        <v>43935.0</v>
       </c>
       <c r="C4" s="61" t="n">
         <v>0.4791666666666667</v>
@@ -1964,7 +1964,7 @@
         <v>113</v>
       </c>
       <c r="F4" s="44" t="n">
-        <v>43932.0</v>
+        <v>43935.0</v>
       </c>
       <c r="G4" s="45" t="n">
         <v>0.6875</v>
@@ -1976,7 +1976,7 @@
         <v>114</v>
       </c>
       <c r="J4" s="47" t="n">
-        <v>43935.0</v>
+        <v>43938.0</v>
       </c>
       <c r="K4" s="56" t="n">
         <v>0.5277777777777778</v>
@@ -1988,7 +1988,7 @@
         <v>111</v>
       </c>
       <c r="N4" s="46" t="n">
-        <v>43937.0</v>
+        <v>43940.0</v>
       </c>
       <c r="O4" s="53" t="n">
         <v>0.7083333333333334</v>
@@ -2000,7 +2000,7 @@
         <v>136</v>
       </c>
       <c r="R4" s="51" t="n">
-        <v>43941.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S4" s="77" t="n">
         <v>0.5</v>
@@ -2026,7 +2026,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="42" t="n">
-        <v>43928.0</v>
+        <v>43931.0</v>
       </c>
       <c r="C5" s="61" t="n">
         <v>0.3541666666666667</v>
@@ -2038,7 +2038,7 @@
         <v>115</v>
       </c>
       <c r="F5" s="43" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G5" s="45" t="n">
         <v>0.4375</v>
@@ -2050,7 +2050,7 @@
         <v>114</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="K5" s="56" t="n">
         <v>0.5798611111111112</v>
@@ -2066,7 +2066,7 @@
         <v>134</v>
       </c>
       <c r="R5" s="51" t="n">
-        <v>43935.0</v>
+        <v>43938.0</v>
       </c>
       <c r="S5" s="77" t="n">
         <v>0.7083333333333334</v>

--- a/src/test/resources/excelTests/manifestUploadGoodForecastAndExistingAlreadyTPAinDB.xlsx
+++ b/src/test/resources/excelTests/manifestUploadGoodForecastAndExistingAlreadyTPAinDB.xlsx
@@ -1883,7 +1883,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="52" t="n">
-        <v>43936.0</v>
+        <v>43942.0</v>
       </c>
       <c r="C3" s="63" t="n">
         <v>0.4375</v>
@@ -1895,7 +1895,7 @@
         <v>112</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1911,7 +1911,7 @@
         <v>111</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43939.0</v>
+        <v>43945.0</v>
       </c>
       <c r="O3" s="54" t="n">
         <v>0.4583333333333333</v>
@@ -1923,7 +1923,7 @@
         <v>134</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43952.0</v>
+        <v>43958.0</v>
       </c>
       <c r="S3" s="74" t="n">
         <v>0.4166666666666667</v>
@@ -1952,7 +1952,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="42" t="n">
-        <v>43935.0</v>
+        <v>43941.0</v>
       </c>
       <c r="C4" s="61" t="n">
         <v>0.4791666666666667</v>
@@ -1964,7 +1964,7 @@
         <v>113</v>
       </c>
       <c r="F4" s="44" t="n">
-        <v>43935.0</v>
+        <v>43941.0</v>
       </c>
       <c r="G4" s="45" t="n">
         <v>0.6875</v>
@@ -1976,7 +1976,7 @@
         <v>114</v>
       </c>
       <c r="J4" s="47" t="n">
-        <v>43938.0</v>
+        <v>43944.0</v>
       </c>
       <c r="K4" s="56" t="n">
         <v>0.5277777777777778</v>
@@ -1988,7 +1988,7 @@
         <v>111</v>
       </c>
       <c r="N4" s="46" t="n">
-        <v>43940.0</v>
+        <v>43946.0</v>
       </c>
       <c r="O4" s="53" t="n">
         <v>0.7083333333333334</v>
@@ -2000,7 +2000,7 @@
         <v>136</v>
       </c>
       <c r="R4" s="51" t="n">
-        <v>43944.0</v>
+        <v>43950.0</v>
       </c>
       <c r="S4" s="77" t="n">
         <v>0.5</v>
@@ -2026,7 +2026,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="42" t="n">
-        <v>43931.0</v>
+        <v>43937.0</v>
       </c>
       <c r="C5" s="61" t="n">
         <v>0.3541666666666667</v>
@@ -2038,7 +2038,7 @@
         <v>115</v>
       </c>
       <c r="F5" s="43" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="G5" s="45" t="n">
         <v>0.4375</v>
@@ -2050,7 +2050,7 @@
         <v>114</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="K5" s="56" t="n">
         <v>0.5798611111111112</v>
@@ -2066,7 +2066,7 @@
         <v>134</v>
       </c>
       <c r="R5" s="51" t="n">
-        <v>43938.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S5" s="77" t="n">
         <v>0.7083333333333334</v>

--- a/src/test/resources/excelTests/manifestUploadGoodForecastAndExistingAlreadyTPAinDB.xlsx
+++ b/src/test/resources/excelTests/manifestUploadGoodForecastAndExistingAlreadyTPAinDB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C944080-D27D-4DBA-8B2A-D6F83E1B45BC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MANIFESTS" sheetId="4" r:id="rId1"/>
@@ -21,7 +22,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -524,7 +525,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -1732,34 +1733,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="5.7109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="7.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="6.85546875" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1882,10 +1883,10 @@
       <c r="A3" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="52" t="n">
-        <v>43942.0</v>
+      <c r="B3" s="52">
+        <v>44003</v>
       </c>
-      <c r="C3" s="63" t="n">
+      <c r="C3" s="63">
         <v>0.4375</v>
       </c>
       <c r="D3" s="63" t="s">
@@ -1894,11 +1895,11 @@
       <c r="E3" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="43" t="n">
-        <v>43943.0</v>
+      <c r="F3" s="43">
+        <v>44004</v>
       </c>
-      <c r="G3" s="45" t="n">
-        <v>0.6458333333333334</v>
+      <c r="G3" s="45">
+        <v>0.64583333333333337</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>139</v>
@@ -1910,11 +1911,11 @@
       <c r="M3" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="49" t="n">
-        <v>43945.0</v>
+      <c r="N3" s="49">
+        <v>44006</v>
       </c>
-      <c r="O3" s="54" t="n">
-        <v>0.4583333333333333</v>
+      <c r="O3" s="54">
+        <v>0.45833333333333331</v>
       </c>
       <c r="P3" s="15" t="s">
         <v>109</v>
@@ -1922,11 +1923,11 @@
       <c r="Q3" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="R3" s="50" t="n">
-        <v>43958.0</v>
+      <c r="R3" s="50">
+        <v>44019</v>
       </c>
-      <c r="S3" s="74" t="n">
-        <v>0.4166666666666667</v>
+      <c r="S3" s="74">
+        <v>0.41666666666666669</v>
       </c>
       <c r="T3" s="37" t="s">
         <v>96</v>
@@ -1951,11 +1952,11 @@
       <c r="A4" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="42" t="n">
-        <v>43941.0</v>
+      <c r="B4" s="42">
+        <v>44002</v>
       </c>
-      <c r="C4" s="61" t="n">
-        <v>0.4791666666666667</v>
+      <c r="C4" s="61">
+        <v>0.47916666666666669</v>
       </c>
       <c r="D4" s="61" t="s">
         <v>103</v>
@@ -1963,10 +1964,10 @@
       <c r="E4" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="44" t="n">
-        <v>43941.0</v>
+      <c r="F4" s="44">
+        <v>44002</v>
       </c>
-      <c r="G4" s="45" t="n">
+      <c r="G4" s="45">
         <v>0.6875</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -1975,11 +1976,11 @@
       <c r="I4" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="47" t="n">
-        <v>43944.0</v>
+      <c r="J4" s="47">
+        <v>44005</v>
       </c>
-      <c r="K4" s="56" t="n">
-        <v>0.5277777777777778</v>
+      <c r="K4" s="56">
+        <v>0.52777777777777779</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>105</v>
@@ -1987,11 +1988,11 @@
       <c r="M4" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="N4" s="46" t="n">
-        <v>43946.0</v>
+      <c r="N4" s="46">
+        <v>44007</v>
       </c>
-      <c r="O4" s="53" t="n">
-        <v>0.7083333333333334</v>
+      <c r="O4" s="53">
+        <v>0.70833333333333337</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>110</v>
@@ -1999,10 +2000,10 @@
       <c r="Q4" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="R4" s="51" t="n">
-        <v>43950.0</v>
+      <c r="R4" s="51">
+        <v>44011</v>
       </c>
-      <c r="S4" s="77" t="n">
+      <c r="S4" s="77">
         <v>0.5</v>
       </c>
       <c r="T4" s="38" t="s">
@@ -2025,11 +2026,11 @@
       <c r="A5" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="42" t="n">
-        <v>43937.0</v>
+      <c r="B5" s="42">
+        <v>43998</v>
       </c>
-      <c r="C5" s="61" t="n">
-        <v>0.3541666666666667</v>
+      <c r="C5" s="61">
+        <v>0.35416666666666669</v>
       </c>
       <c r="D5" s="61" t="s">
         <v>104</v>
@@ -2037,10 +2038,10 @@
       <c r="E5" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="43" t="n">
-        <v>43940.0</v>
+      <c r="F5" s="43">
+        <v>44001</v>
       </c>
-      <c r="G5" s="45" t="n">
+      <c r="G5" s="45">
         <v>0.4375</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -2049,11 +2050,11 @@
       <c r="I5" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="47" t="n">
-        <v>43943.0</v>
+      <c r="J5" s="47">
+        <v>44004</v>
       </c>
-      <c r="K5" s="56" t="n">
-        <v>0.5798611111111112</v>
+      <c r="K5" s="56">
+        <v>0.57986111111111116</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>108</v>
@@ -2065,11 +2066,11 @@
       <c r="Q5" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="R5" s="51" t="n">
-        <v>43944.0</v>
+      <c r="R5" s="51">
+        <v>44005</v>
       </c>
-      <c r="S5" s="77" t="n">
-        <v>0.7083333333333334</v>
+      <c r="S5" s="77">
+        <v>0.70833333333333337</v>
       </c>
       <c r="T5" s="38" t="s">
         <v>98</v>
@@ -2229,9 +2230,9 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2240,11 +2241,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="9.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2302,7 +2303,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D2"/>
+  <autoFilter ref="A2:D2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
@@ -2313,7 +2314,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{2422F177-28FB-44CF-A4DE-B7E2DAB6F9D1}">
@@ -2335,7 +2336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:I1247"/>
   <sheetViews>
@@ -2346,12 +2347,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="8" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -16198,7 +16199,7 @@
       <c r="I1247" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="9">
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="G1:G2"/>
@@ -16215,7 +16216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:J1387"/>
   <sheetViews>
@@ -16226,13 +16227,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -33000,7 +33001,7 @@
       <c r="J1387" s="67"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="10">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
@@ -33018,9 +33019,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Лист5"/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -33028,8 +33029,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="1" max="6" width="18" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33244,11 +33245,11 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/src/test/resources/excelTests/manifestUploadGoodForecastAndExistingAlreadyTPAinDB.xlsx
+++ b/src/test/resources/excelTests/manifestUploadGoodForecastAndExistingAlreadyTPAinDB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C944080-D27D-4DBA-8B2A-D6F83E1B45BC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD5B41B-BC36-4532-BBEF-22A55693D2F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MANIFESTS" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Автор</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -46,7 +46,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -1330,10 +1330,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1739,7 +1753,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,7 +1898,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="52">
-        <v>44003</v>
+        <v>44123</v>
       </c>
       <c r="C3" s="63">
         <v>0.4375</v>
@@ -1896,7 +1910,7 @@
         <v>112</v>
       </c>
       <c r="F3" s="43">
-        <v>44004</v>
+        <v>44124</v>
       </c>
       <c r="G3" s="45">
         <v>0.64583333333333337</v>
@@ -1912,7 +1926,7 @@
         <v>111</v>
       </c>
       <c r="N3" s="49">
-        <v>44006</v>
+        <v>44126</v>
       </c>
       <c r="O3" s="54">
         <v>0.45833333333333331</v>
@@ -1924,7 +1938,7 @@
         <v>134</v>
       </c>
       <c r="R3" s="50">
-        <v>44019</v>
+        <v>44139</v>
       </c>
       <c r="S3" s="74">
         <v>0.41666666666666669</v>
@@ -1953,7 +1967,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="42">
-        <v>44002</v>
+        <v>44122</v>
       </c>
       <c r="C4" s="61">
         <v>0.47916666666666669</v>
@@ -1965,7 +1979,7 @@
         <v>113</v>
       </c>
       <c r="F4" s="44">
-        <v>44002</v>
+        <v>44122</v>
       </c>
       <c r="G4" s="45">
         <v>0.6875</v>
@@ -1977,7 +1991,7 @@
         <v>114</v>
       </c>
       <c r="J4" s="47">
-        <v>44005</v>
+        <v>44125</v>
       </c>
       <c r="K4" s="56">
         <v>0.52777777777777779</v>
@@ -1989,7 +2003,7 @@
         <v>111</v>
       </c>
       <c r="N4" s="46">
-        <v>44007</v>
+        <v>44127</v>
       </c>
       <c r="O4" s="53">
         <v>0.70833333333333337</v>
@@ -2001,7 +2015,7 @@
         <v>136</v>
       </c>
       <c r="R4" s="51">
-        <v>44011</v>
+        <v>44131</v>
       </c>
       <c r="S4" s="77">
         <v>0.5</v>
@@ -2027,7 +2041,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="42">
-        <v>43998</v>
+        <v>44118</v>
       </c>
       <c r="C5" s="61">
         <v>0.35416666666666669</v>
@@ -2039,7 +2053,7 @@
         <v>115</v>
       </c>
       <c r="F5" s="43">
-        <v>44001</v>
+        <v>44121</v>
       </c>
       <c r="G5" s="45">
         <v>0.4375</v>
@@ -2051,7 +2065,7 @@
         <v>114</v>
       </c>
       <c r="J5" s="47">
-        <v>44004</v>
+        <v>44124</v>
       </c>
       <c r="K5" s="56">
         <v>0.57986111111111116</v>
@@ -2067,7 +2081,7 @@
         <v>134</v>
       </c>
       <c r="R5" s="51">
-        <v>44005</v>
+        <v>44125</v>
       </c>
       <c r="S5" s="77">
         <v>0.70833333333333337</v>
@@ -2098,50 +2112,50 @@
     <mergeCell ref="I1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:L2994">
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="18" priority="15">
       <formula>OR(NOT(VLOOKUP($H3,$H:$K,4,0)=$K3),NOT(VLOOKUP($H3,$H:$J,3,0)=$J3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:O2994">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="17" priority="14">
       <formula>OR(NOT(VLOOKUP($L3,$L:$O,4,0)=$O3),NOT(VLOOKUP($L3,$L:$N,3,0)=$N3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:D2994">
-    <cfRule type="expression" dxfId="14" priority="26">
+    <cfRule type="expression" dxfId="16" priority="26">
       <formula>AND(OR(ISBLANK($B3),ISBLANK($C3),NOT(TYPE($B3)=1),NOT(TYPE($C3)=1)),NOT(ISBLANK($A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:G2994">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>AND(OR(ISBLANK($F3),ISBLANK($G3),NOT(TYPE($F3)=1),NOT(TYPE($G3)=1)),NOT(ISBLANK($E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K2994">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>AND(OR(ISBLANK($J3),ISBLANK($K3),NOT(TYPE($J3)=1),NOT(TYPE($K3)=1)),NOT(ISBLANK($I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:O2994">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>AND(OR(ISBLANK($N3),ISBLANK($O3),NOT(TYPE($N3)=1),NOT(TYPE($O3)=1)),NOT(ISBLANK($M3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:S2994">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>AND(OR(ISBLANK($R3),ISBLANK($S3),NOT(TYPE($R3)=1),NOT(TYPE($S3)=1)),NOT(ISBLANK($Q3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D3000">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>NOT(AND(B3=INDEX($B$3:$B$3000,MATCH(D3,$D$3:$D$3000,0)),C3=INDEX($C$3:$C$3000,MATCH(D3,$D$3:$D$3000,0))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>AND(NOT(ISBLANK($A3)),ISBLANK($D3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T3382">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
